--- a/hypatia/examples/Operation/config_operation.xlsx
+++ b/hypatia/examples/Operation/config_operation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10530003_polimi_it/Documents/Research/MODELS/Hypatia_teaching_version/hypatia/examples/Operation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10530003_polimi_it/Documents/Documenti/GitHub/Hypatia-Teaching/hypatia/examples/Operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_650DC9B5471634D0EE3F0D53747B4BA4C81073E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C41257A6-87AB-4A26-8184-61DC11A07EDF}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_650DC9B5471634D0EE3F0D53747B4BA4C81073E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8AE5495-43D4-4C4F-9124-9889FEF6C383}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="1" r:id="rId1"/>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -902,7 +902,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>107</v>
@@ -1163,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/hypatia/examples/Operation/config_operation.xlsx
+++ b/hypatia/examples/Operation/config_operation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10530003_polimi_it/Documents/Documenti/GitHub/Hypatia-Teaching/hypatia/examples/Operation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10530003_polimi_it/Documents/Research/MODELS/Hypatia_teaching_version/hypatia/examples/Operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_650DC9B5471634D0EE3F0D53747B4BA4C81073E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8AE5495-43D4-4C4F-9124-9889FEF6C383}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_650DC9B5471634D0EE3F0D53747B4BA4C81073E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2ADF53A-54AA-49F8-9D69-3154B0C71956}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-810" yWindow="-17850" windowWidth="21600" windowHeight="10905" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="127">
   <si>
     <t>Technology</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>CO2</t>
-  </si>
-  <si>
-    <t>CO2 emissions</t>
   </si>
   <si>
     <t>kgCO2</t>
@@ -780,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -822,10 +819,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -842,10 +839,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -862,10 +859,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -882,10 +879,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -902,10 +899,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -922,10 +919,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -942,10 +939,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -962,10 +959,10 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -982,10 +979,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1002,10 +999,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1022,10 +1019,10 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1042,10 +1039,10 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1062,10 +1059,10 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1082,10 +1079,10 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1102,10 +1099,10 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1122,10 +1119,10 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1142,10 +1139,10 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1186,10 +1183,10 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1197,10 +1194,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1208,10 +1205,10 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1219,10 +1216,10 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1230,10 +1227,10 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1241,10 +1238,10 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1252,10 +1249,10 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1263,10 +1260,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1274,10 +1271,10 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1285,10 +1282,10 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1296,10 +1293,10 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1307,10 +1304,10 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1318,10 +1315,10 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1329,10 +1326,10 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1340,10 +1337,10 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1351,10 +1348,10 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1362,10 +1359,10 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1373,10 +1370,10 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1384,10 +1381,10 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1395,10 +1392,10 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1406,10 +1403,10 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1417,10 +1414,10 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1428,10 +1425,10 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -1439,10 +1436,10 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1485,7 @@
         <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1505,7 +1502,7 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1522,7 +1519,7 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1539,7 +1536,7 @@
         <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1556,7 +1553,7 @@
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1573,7 +1570,7 @@
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1613,7 +1610,7 @@
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1624,7 +1621,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1635,7 +1632,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1646,7 +1643,7 @@
         <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1658,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1683,10 +1680,10 @@
         <v>96</v>
       </c>
       <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/hypatia/examples/Operation/config_operation.xlsx
+++ b/hypatia/examples/Operation/config_operation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10530003_polimi_it/Documents/Research/MODELS/Hypatia_teaching_version/hypatia/examples/Operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_650DC9B5471634D0EE3F0D53747B4BA4C81073E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2ADF53A-54AA-49F8-9D69-3154B0C71956}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_4379EB8D9B1634D0EEDF044E0877B20829A3322B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD7FAB40-102C-4407-8CEA-C947C18D9CF9}"/>
   <bookViews>
-    <workbookView xWindow="-810" yWindow="-17850" windowWidth="21600" windowHeight="10905" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
   <si>
     <t>Technology</t>
   </si>
@@ -44,16 +44,16 @@
     <t>tech_production_unit</t>
   </si>
   <si>
-    <t>Kerosene_supply</t>
-  </si>
-  <si>
-    <t>Kerosene Supply</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>GWh</t>
+    <t>Natural_gas_supply</t>
+  </si>
+  <si>
+    <t>Natural Gas Supply</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Sm3</t>
   </si>
   <si>
     <t>Oil_supply</t>
@@ -62,16 +62,16 @@
     <t>Oil Supply</t>
   </si>
   <si>
+    <t>barrels</t>
+  </si>
+  <si>
     <t>BW_supply</t>
   </si>
   <si>
     <t>Biofuels and Waste Supply</t>
   </si>
   <si>
-    <t>Diesel_supply</t>
-  </si>
-  <si>
-    <t>Diesel Supply</t>
+    <t>Kg</t>
   </si>
   <si>
     <t>Geo_PP</t>
@@ -80,10 +80,10 @@
     <t>Geothermal Power Plant</t>
   </si>
   <si>
-    <t>Solar_PV_PP</t>
-  </si>
-  <si>
-    <t>Solar Photovoltaic Power Plant</t>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>kWh</t>
   </si>
   <si>
     <t>Wind_PP</t>
@@ -92,22 +92,10 @@
     <t>Wind Power Plant Onshore</t>
   </si>
   <si>
-    <t>S_ROR_Hydro_PP</t>
-  </si>
-  <si>
-    <t>Small Run of River Hydro Power Plant</t>
-  </si>
-  <si>
-    <t>L_ROR_Hydro_PP</t>
-  </si>
-  <si>
-    <t>Large Run of River Hydro Power Plant</t>
-  </si>
-  <si>
-    <t>L_DAM_Hydro_PP</t>
-  </si>
-  <si>
-    <t>Large Dam Hydro Power Plant</t>
+    <t>Hydro_PP</t>
+  </si>
+  <si>
+    <t>Hydro Power Plant</t>
   </si>
   <si>
     <t>HFO_PP</t>
@@ -116,16 +104,10 @@
     <t>Oil Power Plant</t>
   </si>
   <si>
-    <t>HFO_CC_PP</t>
-  </si>
-  <si>
-    <t>Oil Power Plant Combined Cycle</t>
-  </si>
-  <si>
-    <t>KGT_PP</t>
-  </si>
-  <si>
-    <t>Kerosene Gas Turbine Power Plant</t>
+    <t>OCGT_PP</t>
+  </si>
+  <si>
+    <t>Natural Gas Open Cycle Gas Turbine</t>
   </si>
   <si>
     <t>BW_PP</t>
@@ -134,12 +116,6 @@
     <t>Biofuels and Waste Combined Heat and Power Plant</t>
   </si>
   <si>
-    <t>Diesel_engine_pp</t>
-  </si>
-  <si>
-    <t>Diesel Engine</t>
-  </si>
-  <si>
     <t>Elec_transmission_distribution</t>
   </si>
   <si>
@@ -245,7 +221,10 @@
     <t>fuel_unit</t>
   </si>
   <si>
-    <t>Kerosene</t>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
   </si>
   <si>
     <t>Biofuels_waste</t>
@@ -260,9 +239,6 @@
     <t xml:space="preserve">Oil </t>
   </si>
   <si>
-    <t>Diesel</t>
-  </si>
-  <si>
     <t>Electricity</t>
   </si>
   <si>
@@ -284,25 +260,25 @@
     <t>reg1</t>
   </si>
   <si>
-    <t>NBOR</t>
+    <t>Coast Region</t>
   </si>
   <si>
     <t>reg2</t>
   </si>
   <si>
-    <t>CSTR</t>
+    <t>Capitol Region</t>
   </si>
   <si>
     <t>reg3</t>
   </si>
   <si>
-    <t>WSTR</t>
+    <t>Western Region</t>
   </si>
   <si>
     <t>reg4</t>
   </si>
   <si>
-    <t>MTKR</t>
+    <t>Mountain Region</t>
   </si>
   <si>
     <t>Emission</t>
@@ -317,101 +293,62 @@
     <t>CO2</t>
   </si>
   <si>
+    <t>CO2 emissions</t>
+  </si>
+  <si>
     <t>kgCO2</t>
   </si>
   <si>
-    <t>Resource</t>
+    <t>rgb(217,95,2)</t>
+  </si>
+  <si>
+    <t>#FFA15A</t>
+  </si>
+  <si>
+    <t>rgb(156,156,94)</t>
+  </si>
+  <si>
+    <t>#EECA3B</t>
+  </si>
+  <si>
+    <t>#B6E880</t>
+  </si>
+  <si>
+    <t>rgb(136,204,238)</t>
+  </si>
+  <si>
+    <t>#778AAE</t>
+  </si>
+  <si>
+    <t>rgb(220,176,242)</t>
+  </si>
+  <si>
+    <t>#E377C2</t>
+  </si>
+  <si>
+    <t>rgb(180,151,231)</t>
+  </si>
+  <si>
+    <t>rgb(204,102,119)</t>
   </si>
   <si>
     <t>Power Generation</t>
   </si>
   <si>
+    <t>Final Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource </t>
+  </si>
+  <si>
     <t>Power Transmission</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>#7F7F7F</t>
-  </si>
-  <si>
-    <t>#BAB0AC</t>
-  </si>
-  <si>
-    <t>rgb(158,185,243)</t>
-  </si>
-  <si>
-    <t>#19D3F3</t>
-  </si>
-  <si>
-    <t>#778AAE</t>
-  </si>
-  <si>
-    <t>#E377C2</t>
-  </si>
-  <si>
-    <t>#7E7DCD</t>
-  </si>
-  <si>
-    <t>#E48F72</t>
-  </si>
-  <si>
-    <t>#FF9900</t>
-  </si>
-  <si>
-    <t>#DEA0FD</t>
-  </si>
-  <si>
-    <t>#d36e70</t>
-  </si>
-  <si>
-    <t>#badbad</t>
-  </si>
-  <si>
-    <t>#e55137</t>
-  </si>
-  <si>
-    <t>#410012</t>
-  </si>
-  <si>
-    <t>#0099C6</t>
-  </si>
-  <si>
-    <t>#1F77B4</t>
-  </si>
-  <si>
-    <t>#8C564B</t>
-  </si>
-  <si>
-    <t>Import from reg2</t>
-  </si>
-  <si>
-    <t>Import from reg3</t>
-  </si>
-  <si>
-    <t>Import from reg4</t>
-  </si>
-  <si>
-    <t>Import from reg1</t>
-  </si>
-  <si>
-    <t>Export to reg2</t>
-  </si>
-  <si>
-    <t>Export to reg3</t>
-  </si>
-  <si>
-    <t>Export to reg4</t>
-  </si>
-  <si>
-    <t>Export to reg1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,13 +360,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -467,12 +398,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,20 +705,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -819,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -839,316 +766,196 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1160,286 +967,215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="B25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1449,43 +1185,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1493,87 +1221,46 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1585,65 +1272,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1655,35 +1328,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
